--- a/data/BTS.xlsx
+++ b/data/BTS.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="789"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="789" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dsBTS" sheetId="18" r:id="rId1"/>
+    <sheet name="CSHT" sheetId="19" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CSHT!$A$1:$L$1</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1927">
   <si>
     <t>2G</t>
   </si>
@@ -5394,6 +5398,420 @@
   </si>
   <si>
     <t>4G</t>
+  </si>
+  <si>
+    <t>Hội An</t>
+  </si>
+  <si>
+    <t>Nam Giang</t>
+  </si>
+  <si>
+    <t>Núi Thành</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>Tiên Phước</t>
+  </si>
+  <si>
+    <t>Điện Bàn</t>
+  </si>
+  <si>
+    <t>Xã Điện Ngọc</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>Thăng Bình</t>
+  </si>
+  <si>
+    <t>Tam Kỳ</t>
+  </si>
+  <si>
+    <t>Quế Sơn</t>
+  </si>
+  <si>
+    <t>Xã Bình Giang</t>
+  </si>
+  <si>
+    <t>Thị trấn Thành Mỹ</t>
+  </si>
+  <si>
+    <t>Phường An Phú</t>
+  </si>
+  <si>
+    <t>Tây Giang</t>
+  </si>
+  <si>
+    <t>Thị trấn Đông Phú</t>
+  </si>
+  <si>
+    <t>Nam Trà My</t>
+  </si>
+  <si>
+    <t>Xã Tam Quang</t>
+  </si>
+  <si>
+    <t>Xã Tam Mỹ</t>
+  </si>
+  <si>
+    <t>Bắc Trà My</t>
+  </si>
+  <si>
+    <t>Duy Xuyên</t>
+  </si>
+  <si>
+    <t>Xã Cẩm Thanh</t>
+  </si>
+  <si>
+    <t>Minh An</t>
+  </si>
+  <si>
+    <t>Xã Trà Mai</t>
+  </si>
+  <si>
+    <t>Xã Tam Thăng</t>
+  </si>
+  <si>
+    <t>Khối 3-Thị trấn Núi Thành</t>
+  </si>
+  <si>
+    <t>Xã Lăng</t>
+  </si>
+  <si>
+    <t>Phường An Mỹ</t>
+  </si>
+  <si>
+    <t>Xã Duy Trinh</t>
+  </si>
+  <si>
+    <t>Xã Bình Đào</t>
+  </si>
+  <si>
+    <t>Xã Duy Hải</t>
+  </si>
+  <si>
+    <t>Phường Tân An</t>
+  </si>
+  <si>
+    <t>Xã Trà Tân</t>
+  </si>
+  <si>
+    <t>Xã Tiên Thọ</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>Khu vực chợ TT Thành Mỹ, huyện Nam Giang, tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>107.834356</t>
+  </si>
+  <si>
+    <t>15.753060</t>
+  </si>
+  <si>
+    <t>Thôn 8, xã Tiên Thọ, huyện Tiên Phước, tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.368070</t>
+  </si>
+  <si>
+    <t>15.465710</t>
+  </si>
+  <si>
+    <t>27/01/2019</t>
+  </si>
+  <si>
+    <t>Đội 3 Thạch Mỹ ,  xã Tam Mỹ Tây, Huyện Núi Thành, tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.628260</t>
+  </si>
+  <si>
+    <t>15.400610</t>
+  </si>
+  <si>
+    <t>KCN-DIEN-NAM-DIEN-NGOC-2-DBN_QNM</t>
+  </si>
+  <si>
+    <t>KCN Điện Nam - Điện Ngọc, xã Điện Ngọc, huyện Điện Bàn, tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.266959</t>
+  </si>
+  <si>
+    <t>15.940910</t>
+  </si>
+  <si>
+    <t>01/05/2019</t>
+  </si>
+  <si>
+    <t>Khuôn viên sân bay Chu Lai, xã Tam Quang, huyện Núi Thành</t>
+  </si>
+  <si>
+    <t>108.704008</t>
+  </si>
+  <si>
+    <t>15.414304</t>
+  </si>
+  <si>
+    <t>Khối 2, TT Núi Thành</t>
+  </si>
+  <si>
+    <t>108.650802</t>
+  </si>
+  <si>
+    <t>15.435848</t>
+  </si>
+  <si>
+    <t>Thôn Đồng Cố, xã Tam Mỹ Tây, huyện Núi Thành, tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.578237</t>
+  </si>
+  <si>
+    <t>15.374618</t>
+  </si>
+  <si>
+    <t>KCN TAM THĂNG</t>
+  </si>
+  <si>
+    <t>QNM2018-19_057</t>
+  </si>
+  <si>
+    <t>Cty Amann, KCN Tam Thăng, TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>108.469136</t>
+  </si>
+  <si>
+    <t>15.626377</t>
+  </si>
+  <si>
+    <t>QNM2018-19_006</t>
+  </si>
+  <si>
+    <t>Thôn Đông Yên, xã Duy Trinh, huyện Duy Xuyên</t>
+  </si>
+  <si>
+    <t>108.219300</t>
+  </si>
+  <si>
+    <t>15.829170</t>
+  </si>
+  <si>
+    <t>Tổ 5, Lãnh Thượng 1, thị Trấn Đông Phú, huyện Quế Sơn</t>
+  </si>
+  <si>
+    <t>108.211850</t>
+  </si>
+  <si>
+    <t>15.668890</t>
+  </si>
+  <si>
+    <t>TRẠM RRU HAI BÀ TRƯNG</t>
+  </si>
+  <si>
+    <t>15/09/2018</t>
+  </si>
+  <si>
+    <t>178 Hai Bà Trưng, Phường Tân An, TP Hội An, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.326566</t>
+  </si>
+  <si>
+    <t>15.880095</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 3 BÌNH GIANG</t>
+  </si>
+  <si>
+    <t>18/09/2019</t>
+  </si>
+  <si>
+    <t>Thôn 3, xã Bình Giang, huyện Thăng Bình, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.365951</t>
+  </si>
+  <si>
+    <t>15.793399</t>
+  </si>
+  <si>
+    <t>QNM-CLĐC2G2015-13</t>
+  </si>
+  <si>
+    <t>10/06/2019</t>
+  </si>
+  <si>
+    <t>xã Lăng - huyện Tây Giang - tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>107.420000</t>
+  </si>
+  <si>
+    <t>15.862100</t>
+  </si>
+  <si>
+    <t>QNM-CLĐC2G2015-14</t>
+  </si>
+  <si>
+    <t>Xã Tr'Hy</t>
+  </si>
+  <si>
+    <t>xã Tr'Hy - huyện Tây Giang - tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>107.377000</t>
+  </si>
+  <si>
+    <t>15.825800</t>
+  </si>
+  <si>
+    <t>15/07/2019</t>
+  </si>
+  <si>
+    <t>Xã Cẩm Thanh, TP Hội An, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.366920</t>
+  </si>
+  <si>
+    <t>15.870910</t>
+  </si>
+  <si>
+    <t>27/09/2019</t>
+  </si>
+  <si>
+    <t>Thôn 3, Xã Duy Hải, Huyện Duy Xuyên, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.403000</t>
+  </si>
+  <si>
+    <t>15.835733</t>
+  </si>
+  <si>
+    <t>QNM 2018-19_063</t>
+  </si>
+  <si>
+    <t>Thôn trà đóa, xã Bình đào, huyện Thăng Bình, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.404600</t>
+  </si>
+  <si>
+    <t>15.764430</t>
+  </si>
+  <si>
+    <t>07/03/2019</t>
+  </si>
+  <si>
+    <t>Khuôn viên UBND huyện</t>
+  </si>
+  <si>
+    <t>108.113507</t>
+  </si>
+  <si>
+    <t>15.148295</t>
+  </si>
+  <si>
+    <t>SMALL-CELL-KTX-PANCO-TKY_QNM</t>
+  </si>
+  <si>
+    <t>15/03/2019</t>
+  </si>
+  <si>
+    <t>Khu KTX Panco, phường An Phú</t>
+  </si>
+  <si>
+    <t>108.485015</t>
+  </si>
+  <si>
+    <t>15.600212</t>
+  </si>
+  <si>
+    <t>SMALL-CELL-23-LE-LOI-TKY_QNM</t>
+  </si>
+  <si>
+    <t>Số 23, đường Lê Lợi</t>
+  </si>
+  <si>
+    <t>108.476878</t>
+  </si>
+  <si>
+    <t>15.569798</t>
+  </si>
+  <si>
+    <t>SMALL-CELL-143-PHAN-CHAU-TRINH-HAN_QNM</t>
+  </si>
+  <si>
+    <t>Số 143 đường Phan Châu Trinh</t>
+  </si>
+  <si>
+    <t>108.323612</t>
+  </si>
+  <si>
+    <t>15.878562</t>
+  </si>
+  <si>
+    <t>SMALL-CELL-HOME-STAY-HERITAGE-HOI-AN-TKY_QNM</t>
+  </si>
+  <si>
+    <t>Home Stay Heritage, đường Đào Duy Từ</t>
+  </si>
+  <si>
+    <t>108.320582</t>
+  </si>
+  <si>
+    <t>15.877160</t>
+  </si>
+  <si>
+    <t>Thôn 4, xã Trà Tân</t>
+  </si>
+  <si>
+    <t>108.154726</t>
+  </si>
+  <si>
+    <t>15.313979</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Mã quản lý vị trí</t>
+  </si>
+  <si>
+    <t>NgayHD</t>
+  </si>
+  <si>
+    <t>Donvi</t>
+  </si>
+  <si>
+    <t>Dai</t>
+  </si>
+  <si>
+    <t>Quan</t>
+  </si>
+  <si>
+    <t>Nhom</t>
+  </si>
+  <si>
+    <t>Xa</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>MaCSHT</t>
   </si>
 </sst>
 </file>
@@ -5483,7 +5901,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5500,6 +5918,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
       </patternFill>
     </fill>
   </fills>
@@ -5599,7 +6022,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5649,6 +6072,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5974,7 +6398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E492"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
@@ -13790,4 +14214,950 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="25" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1855</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1">
+    <sortState ref="A2:L24">
+      <sortCondition ref="H1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/BTS.xlsx
+++ b/data/BTS.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="2260">
   <si>
     <t>2G</t>
   </si>
@@ -5812,6 +5812,1005 @@
   </si>
   <si>
     <t>MaCSHT</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00340</t>
+  </si>
+  <si>
+    <t>TRẠM CẨM THANH (VIETTEL)</t>
+  </si>
+  <si>
+    <t>Thôn 1, xã Cẩm Thanh, TP Hội An</t>
+  </si>
+  <si>
+    <t>THẠCH MỸ TÂY</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 1 TRÀ LINH</t>
+  </si>
+  <si>
+    <t>Xã Trà Linh</t>
+  </si>
+  <si>
+    <t>Thôn 1, xã Trà Linh, huyện Nam Trà My, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.020906</t>
+  </si>
+  <si>
+    <t>15.014156</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 3 TRÀ LINH</t>
+  </si>
+  <si>
+    <t>Thôn 3, xã Trà Linh, huyện Nam Trà My, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.005878</t>
+  </si>
+  <si>
+    <t>15.034467</t>
+  </si>
+  <si>
+    <t>TRẠM KHÁNH TÂN TAM DÂN</t>
+  </si>
+  <si>
+    <t>Phú Ninh</t>
+  </si>
+  <si>
+    <t>Tam Dân</t>
+  </si>
+  <si>
+    <t>Thôn Khánh Tân, xã Tam Dân, huyện Phú Ninh, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.431359</t>
+  </si>
+  <si>
+    <t>15.538016</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00495</t>
+  </si>
+  <si>
+    <t>TRẠM THẠNH PHÚ ĐẠI CHÁNH</t>
+  </si>
+  <si>
+    <t>Đại Lộc</t>
+  </si>
+  <si>
+    <t>Xã Đại Chánh</t>
+  </si>
+  <si>
+    <t>Thôn Thạnh Phú, xã Đại Chánh, huyện Đại Lộc</t>
+  </si>
+  <si>
+    <t>108.026301</t>
+  </si>
+  <si>
+    <t>15.816215</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00496</t>
+  </si>
+  <si>
+    <t>TRẠM TÂN ĐỢI ĐẠI SƠN</t>
+  </si>
+  <si>
+    <t>Xã Đại Sơn</t>
+  </si>
+  <si>
+    <t>Thôn Tân Đợi, xã Đại Sơn, huyện Đại Lộc</t>
+  </si>
+  <si>
+    <t>107.886520</t>
+  </si>
+  <si>
+    <t>15.805340</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00497</t>
+  </si>
+  <si>
+    <t>TRẠM TINH ĐÔNG TÂY ĐẠI LÃNH</t>
+  </si>
+  <si>
+    <t>Xã Đại Lãnh</t>
+  </si>
+  <si>
+    <t>Thôn Tịnh Đông Tây, xã Đại Lãnh, huyện Đại Lộc</t>
+  </si>
+  <si>
+    <t>107.950770</t>
+  </si>
+  <si>
+    <t>15.851410</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00498</t>
+  </si>
+  <si>
+    <t>TRẠM XUÂN ĐÀI ĐIỆN QUANG</t>
+  </si>
+  <si>
+    <t>Xã Điện Quang</t>
+  </si>
+  <si>
+    <t>Thôn Xuân Đài, xã Điện Quang, TX Điện Bàn</t>
+  </si>
+  <si>
+    <t>108.189330</t>
+  </si>
+  <si>
+    <t>15.841942</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00499</t>
+  </si>
+  <si>
+    <t>TRẠM CHÂU BÍ ĐIỆN TIẾN</t>
+  </si>
+  <si>
+    <t>Xã Điện Tiến</t>
+  </si>
+  <si>
+    <t>Thôn Châu Bí, xã Điện Tiến, TX Điện Bàn</t>
+  </si>
+  <si>
+    <t>108.142689</t>
+  </si>
+  <si>
+    <t>15.911473</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00500</t>
+  </si>
+  <si>
+    <t>TRẠM ĐA HÒA NAM ĐIỆN HỒNG</t>
+  </si>
+  <si>
+    <t>Xã Điện Hồng</t>
+  </si>
+  <si>
+    <t>Thôn Đa Hòa Nam, xã Điện Hồng, TX Điện Bàn</t>
+  </si>
+  <si>
+    <t>108.160593</t>
+  </si>
+  <si>
+    <t>15.878281</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00501</t>
+  </si>
+  <si>
+    <t>TRẠM TRÀ KIỆU TÂY DUY SƠN</t>
+  </si>
+  <si>
+    <t>Xã Duy Sơn</t>
+  </si>
+  <si>
+    <t>Thôn Trà Kiệu Tây, xã Duy Sơn, huyện Duy Xuyên</t>
+  </si>
+  <si>
+    <t>108.237560</t>
+  </si>
+  <si>
+    <t>15.806405</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00502</t>
+  </si>
+  <si>
+    <t>TRẠM LỆ SƠN DUY NGHĨA</t>
+  </si>
+  <si>
+    <t>Xã Duy Nghĩa</t>
+  </si>
+  <si>
+    <t>Thôn Lệ Sơn, xã Duy Nghĩa, huyện Duy Xuyên, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.376880</t>
+  </si>
+  <si>
+    <t>15.830460</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00503</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 3 HIỆP HÒA</t>
+  </si>
+  <si>
+    <t>Hiệp Đức</t>
+  </si>
+  <si>
+    <t>Xã Hiệp Hòa</t>
+  </si>
+  <si>
+    <t>Tổ 5, thôn 3, xã Hiệp Hòa, huyện Hiệp Đức</t>
+  </si>
+  <si>
+    <t>108.033141</t>
+  </si>
+  <si>
+    <t>15.595283</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00504</t>
+  </si>
+  <si>
+    <t>TRẠM VIÊN TRUNG QUẾ TRUNG</t>
+  </si>
+  <si>
+    <t>Nông Sơn</t>
+  </si>
+  <si>
+    <t>Xã Quế Trung</t>
+  </si>
+  <si>
+    <t>Thôn Viên Trung, xã Quế Trung, huyện Nông Sơn</t>
+  </si>
+  <si>
+    <t>108.064879</t>
+  </si>
+  <si>
+    <t>15.709508</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00505</t>
+  </si>
+  <si>
+    <t>TRẠM PHƯỚC THẠNH TAM THẠNH</t>
+  </si>
+  <si>
+    <t>Xã Tam Thạnh</t>
+  </si>
+  <si>
+    <t>Thôn Phước Thạnh, xã Tam Thạnh, huyện Núi Thành</t>
+  </si>
+  <si>
+    <t>108.545600</t>
+  </si>
+  <si>
+    <t>15.418820</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00506</t>
+  </si>
+  <si>
+    <t>TRẠM CẢNG TAM HIỆP</t>
+  </si>
+  <si>
+    <t>Xã Tam Hiệp</t>
+  </si>
+  <si>
+    <t>Khu công nghiệp và hậu cần cảng Tam,Hiệp, khu kinh tế mở Chu lai, xã Tam Hiệp, huyện Núi Thành</t>
+  </si>
+  <si>
+    <t>108.625326</t>
+  </si>
+  <si>
+    <t>15.475091</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00507</t>
+  </si>
+  <si>
+    <t>TRẠM LONG THẠNH TAM TIẾN</t>
+  </si>
+  <si>
+    <t>Xã Tam Tiến</t>
+  </si>
+  <si>
+    <t>Thôn Long Thạnh, xã Tam Tiến, huyện Núi Thành</t>
+  </si>
+  <si>
+    <t>108.598880</t>
+  </si>
+  <si>
+    <t>15.528440</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00508</t>
+  </si>
+  <si>
+    <t>TRẠM DƯƠNG XUÂN QUẾ XUÂN</t>
+  </si>
+  <si>
+    <t>Xã Quế Xuân</t>
+  </si>
+  <si>
+    <t>Thôn Dương Xuân, xã Quế Xuân, huyện Quế Sơn</t>
+  </si>
+  <si>
+    <t>108.278524</t>
+  </si>
+  <si>
+    <t>15.809703</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00509</t>
+  </si>
+  <si>
+    <t>TRẠM 108 THÁI PHIÊN AN SƠN</t>
+  </si>
+  <si>
+    <t>Phường An Sơn</t>
+  </si>
+  <si>
+    <t>Số 108 Thái Phiên, Phường An Sơn, TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>108.498328</t>
+  </si>
+  <si>
+    <t>15.558180</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00510</t>
+  </si>
+  <si>
+    <t>TRẠM AN TRÂN BÌNH HẢI</t>
+  </si>
+  <si>
+    <t>Xã Bình Hải</t>
+  </si>
+  <si>
+    <t>Thôn An Trân, xã Bình Hải, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.479450</t>
+  </si>
+  <si>
+    <t>15.694415</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00511</t>
+  </si>
+  <si>
+    <t>TRẠM PHÚ NGHĨA BÌNH TÚ</t>
+  </si>
+  <si>
+    <t>Xã Bình Tú</t>
+  </si>
+  <si>
+    <t>Tổ 11, thôn Phú Nghĩa, xã Bình Tú, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.422250</t>
+  </si>
+  <si>
+    <t>15.689420</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00512</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 2 TIÊN CẢNH</t>
+  </si>
+  <si>
+    <t>Xã Tiên Cảnh</t>
+  </si>
+  <si>
+    <t>Thôn 2, xã Tiên Cảnh, huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.304110</t>
+  </si>
+  <si>
+    <t>15.443320</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00513</t>
+  </si>
+  <si>
+    <t>TRẠM AN PHÚ BÌNH SƠN</t>
+  </si>
+  <si>
+    <t>Xã Bình Sơn</t>
+  </si>
+  <si>
+    <t>Thôn An Phú, xã Bình Sơn, huyện Hiệp Đức</t>
+  </si>
+  <si>
+    <t>108.178750</t>
+  </si>
+  <si>
+    <t>15.572310</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00514</t>
+  </si>
+  <si>
+    <t>TRẠM HỘI TRƯỜNG BÌNH LÂM</t>
+  </si>
+  <si>
+    <t>Xã Bình Lâm</t>
+  </si>
+  <si>
+    <t>Thôn Hội Trường, xã Bình Lâm, huyện Hiệp Đức</t>
+  </si>
+  <si>
+    <t>108.207880</t>
+  </si>
+  <si>
+    <t>15.600240</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00515</t>
+  </si>
+  <si>
+    <t>TRẠM ĐÔNG THẠNH TAM HÒA</t>
+  </si>
+  <si>
+    <t>Xã Tam Hòa</t>
+  </si>
+  <si>
+    <t>Thôn Đông Thạnh, xã Tam Hòa, huyện Núi Thành</t>
+  </si>
+  <si>
+    <t>108.594038</t>
+  </si>
+  <si>
+    <t>15.491419</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00516</t>
+  </si>
+  <si>
+    <t>TRẠM XUÂN TRUNG TAM ĐÀN</t>
+  </si>
+  <si>
+    <t>Tam DĐàn</t>
+  </si>
+  <si>
+    <t>Thôn Xuân Trung, xã Tam Đàn, huyện Phú Ninh</t>
+  </si>
+  <si>
+    <t>108.424671</t>
+  </si>
+  <si>
+    <t>15.564566</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00517</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 7 TAM THÀNH</t>
+  </si>
+  <si>
+    <t>Tam Thành</t>
+  </si>
+  <si>
+    <t>Thôn 7, xã Tam Thành, huyện Phú Ninh</t>
+  </si>
+  <si>
+    <t>108.388480</t>
+  </si>
+  <si>
+    <t>15.601543</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00518</t>
+  </si>
+  <si>
+    <t>TRẠM CẨM KHUÊ TAM PHƯỚC</t>
+  </si>
+  <si>
+    <t>Tam Phước</t>
+  </si>
+  <si>
+    <t>Thôn Cẩm Khuê, xã Tam Phước, huyện Phú Ninh</t>
+  </si>
+  <si>
+    <t>108.413746</t>
+  </si>
+  <si>
+    <t>15.574346</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00519</t>
+  </si>
+  <si>
+    <t>TRẠM 13 LƯƠNG THẾ VINH TÂN THẠNH</t>
+  </si>
+  <si>
+    <t>Phường Tân Thạnh</t>
+  </si>
+  <si>
+    <t>Số 13, đường Lương Thế Vinh, KPM Tân Thạnh, TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>108.475555</t>
+  </si>
+  <si>
+    <t>15.586347</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00520</t>
+  </si>
+  <si>
+    <t>TRẠM PHƯỚC LONG BÌNH ĐÀO</t>
+  </si>
+  <si>
+    <t>Thôn Phước Long, xã Bình Đào, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.423210</t>
+  </si>
+  <si>
+    <t>15.753390</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00521</t>
+  </si>
+  <si>
+    <t>TRẠM VIỆT SƠN 2 BÌNH TRỊ</t>
+  </si>
+  <si>
+    <t>Xã Bình Trị</t>
+  </si>
+  <si>
+    <t>Thôn Việt Sơn, xã Bình Trị, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.266940</t>
+  </si>
+  <si>
+    <t>15.635530</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00522</t>
+  </si>
+  <si>
+    <t>TRẠM ĐỘI 5 QUÝ MỸ BÌNH QUÝ</t>
+  </si>
+  <si>
+    <t>Xã Bình Quý</t>
+  </si>
+  <si>
+    <t>Đội 5, thôn Quý Mỹ, xã Bình Quý, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.364378</t>
+  </si>
+  <si>
+    <t>15.706927</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00523</t>
+  </si>
+  <si>
+    <t>TRẠM QUÝ HƯƠNG BÌNH QUÝ</t>
+  </si>
+  <si>
+    <t>Thôn Quý Hương, xã Bình Quý, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.338585</t>
+  </si>
+  <si>
+    <t>15.676106</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00524</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 2 TIÊN MỸ</t>
+  </si>
+  <si>
+    <t>Tiên Mỹ</t>
+  </si>
+  <si>
+    <t>Thôn 2, xã Tiên Mỹ, huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.333240</t>
+  </si>
+  <si>
+    <t>15.511610</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00525</t>
+  </si>
+  <si>
+    <t>TRẠM DƯƠNG HÒA TRÀ SƠN</t>
+  </si>
+  <si>
+    <t>Xã Trà Sơn</t>
+  </si>
+  <si>
+    <t>Thôn Dương Hòa, xã Trà Sơn, TT Bắc Trà My</t>
+  </si>
+  <si>
+    <t>108.215230</t>
+  </si>
+  <si>
+    <t>15.333160</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00793</t>
+  </si>
+  <si>
+    <t>TRẠM IBS RESORT SHILA ĐIỆN NGỌC</t>
+  </si>
+  <si>
+    <t>Phường Điện Ngọc, Thị xã Điện Bàn, Quảng Nam</t>
+  </si>
+  <si>
+    <t>108.290927</t>
+  </si>
+  <si>
+    <t>15.957966</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00794</t>
+  </si>
+  <si>
+    <t>TRẠM TIÊN HÀ 2</t>
+  </si>
+  <si>
+    <t>Xã Tiên Hà</t>
+  </si>
+  <si>
+    <t>Thôn Phước Xuân, Xã Tiên Hà, huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.223500</t>
+  </si>
+  <si>
+    <t>15.552880</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00795</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 1 TRÀ TÂN</t>
+  </si>
+  <si>
+    <t>Thôn 1, xã Trà Tân, huyện Bắc Trà My</t>
+  </si>
+  <si>
+    <t>108.164823</t>
+  </si>
+  <si>
+    <t>15.318151</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00796</t>
+  </si>
+  <si>
+    <t>TRẠM XUÂN DIỆN ĐIỆN TIẾN</t>
+  </si>
+  <si>
+    <t>Thôn Xuân Diện, xã Điện Tiến, TX Điện Bàn</t>
+  </si>
+  <si>
+    <t>108.164090</t>
+  </si>
+  <si>
+    <t>15.945330</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00797</t>
+  </si>
+  <si>
+    <t>TRẠM PÀ PĂNG CÀ DY</t>
+  </si>
+  <si>
+    <t>Xã Cà Dy</t>
+  </si>
+  <si>
+    <t>Thôn Pà Păng, xã Cà Dy, huyện Nam Giang</t>
+  </si>
+  <si>
+    <t>107.795580</t>
+  </si>
+  <si>
+    <t>15.714150</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00798</t>
+  </si>
+  <si>
+    <t>TRẠM XUÂN QUÝ TAM THĂNG</t>
+  </si>
+  <si>
+    <t>Thôn Xuân Quý, xã Tam Thăng, TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>108.474710</t>
+  </si>
+  <si>
+    <t>15.601300</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00799</t>
+  </si>
+  <si>
+    <t>TRẠM MỸ THẠCH TÂY TÂN THẠNH</t>
+  </si>
+  <si>
+    <t>Khối Phố Mỹ Thạch Tây, Phường Tân Thạnh, thành phố Tam Kỳ</t>
+  </si>
+  <si>
+    <t>108.468100</t>
+  </si>
+  <si>
+    <t>15.558910</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00800</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 2 BÌNH LÃNH</t>
+  </si>
+  <si>
+    <t>Xã Bình Lãnh</t>
+  </si>
+  <si>
+    <t>Thôn 2, xã Bình Lãnh, huyện Thăng Bình</t>
+  </si>
+  <si>
+    <t>108.239500</t>
+  </si>
+  <si>
+    <t>15.624500</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00801</t>
+  </si>
+  <si>
+    <t>TRẠM CẨM PHÔ TIÊN PHƯỚC</t>
+  </si>
+  <si>
+    <t>Xã Tiên Cẩm</t>
+  </si>
+  <si>
+    <t>Thôn Cẩm Phô, xã Tiên Cẩm, huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.274670</t>
+  </si>
+  <si>
+    <t>15.547850</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00802</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 2 TIÊN LẬP</t>
+  </si>
+  <si>
+    <t>Xã Tiên Lập</t>
+  </si>
+  <si>
+    <t>Thôn 2, xã Tiên Lập, huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.353070</t>
+  </si>
+  <si>
+    <t>15.427303</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00803</t>
+  </si>
+  <si>
+    <t>TRẠM TIÊN HIỆP</t>
+  </si>
+  <si>
+    <t>Xã Tiên Hiệp</t>
+  </si>
+  <si>
+    <t>Xã Tiên Hiệp, Huyện Tiên Phước</t>
+  </si>
+  <si>
+    <t>108.265882</t>
+  </si>
+  <si>
+    <t>15.419478</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00804</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 7 TRÀ BUI</t>
+  </si>
+  <si>
+    <t>Trà Bui</t>
+  </si>
+  <si>
+    <t>Thôn 7, xã Trà Bui, huyện Bắc Trà My</t>
+  </si>
+  <si>
+    <t>108.091550</t>
+  </si>
+  <si>
+    <t>15.354590</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00805</t>
+  </si>
+  <si>
+    <t>TRẠM DƯƠNG BÌNH TRÀ DƯƠNG</t>
+  </si>
+  <si>
+    <t>Trà Dương</t>
+  </si>
+  <si>
+    <t>Thôn Dương Bình, xã Trà Dương, huyện Bắc Trà My</t>
+  </si>
+  <si>
+    <t>108.298942</t>
+  </si>
+  <si>
+    <t>15.381092</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00806</t>
+  </si>
+  <si>
+    <t>TRẠM PA ZIH A TING</t>
+  </si>
+  <si>
+    <t>Đông Giang</t>
+  </si>
+  <si>
+    <t>Xã Ating</t>
+  </si>
+  <si>
+    <t>Thôn Pa Zíh, xã A Ting, huyện Đông Giang</t>
+  </si>
+  <si>
+    <t>107.819256</t>
+  </si>
+  <si>
+    <t>15.963654</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00807</t>
+  </si>
+  <si>
+    <t>TRẠM LA ĐÀNG JƠ NGÂY</t>
+  </si>
+  <si>
+    <t>Xã Zơ Ngây</t>
+  </si>
+  <si>
+    <t>Thôn La Đàng, xã Jơ Ngây, huyện Đông Giang</t>
+  </si>
+  <si>
+    <t>107.767894</t>
+  </si>
+  <si>
+    <t>15.934149</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00808</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN 2 DUY THÀNH</t>
+  </si>
+  <si>
+    <t>Xã Duy Thành</t>
+  </si>
+  <si>
+    <t>Thôn 2, Xã Duy Thành, huyện Duy Xuyên</t>
+  </si>
+  <si>
+    <t>108.314200</t>
+  </si>
+  <si>
+    <t>15.829350</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00809</t>
+  </si>
+  <si>
+    <t>TRẠM KỲ TÂN TAM DÂN</t>
+  </si>
+  <si>
+    <t>Thôn Kỳ Tân, Xã Tam Dân, huyện Phú Ninh</t>
+  </si>
+  <si>
+    <t>108.402060</t>
+  </si>
+  <si>
+    <t>15.517450</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00810</t>
+  </si>
+  <si>
+    <t>TRẠM CỔNG TRỜI ĐÔNG GIANG</t>
+  </si>
+  <si>
+    <t>Xã Mà Cooih</t>
+  </si>
+  <si>
+    <t>Thôn A Sờ, xã Mà Cooi, huyện Đông Giang</t>
+  </si>
+  <si>
+    <t>107.734507</t>
+  </si>
+  <si>
+    <t>15.861243</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00811</t>
+  </si>
+  <si>
+    <t>TRẠM THÔN HIỆP CÀ DĂNG</t>
+  </si>
+  <si>
+    <t>Xã Ka Dăng</t>
+  </si>
+  <si>
+    <t>Thôn Hiệp, xã Cà Dăng, huyện Đông Giang</t>
+  </si>
+  <si>
+    <t>107.806885</t>
+  </si>
+  <si>
+    <t>15.882889</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00813</t>
+  </si>
+  <si>
+    <t>TRẠM ĐĂK PREE</t>
+  </si>
+  <si>
+    <t>Xã Đắk Pring</t>
+  </si>
+  <si>
+    <t>Thôn 56B, xã Đăk Pree, huyện Nam Giang</t>
+  </si>
+  <si>
+    <t>107.542627</t>
+  </si>
+  <si>
+    <t>15.587703</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00814</t>
+  </si>
+  <si>
+    <t>TRẠM MỸ HẠNH QUẾ THỌ</t>
+  </si>
+  <si>
+    <t>Xã  Quế Thọ</t>
+  </si>
+  <si>
+    <t>Thôn Mỹ Hạnh, Xã Quế Thọ, huyện Hiệp Đức</t>
+  </si>
+  <si>
+    <t>108.119730</t>
+  </si>
+  <si>
+    <t>15.608197</t>
+  </si>
+  <si>
+    <t>CSHT_QNM_00815</t>
+  </si>
+  <si>
+    <t>TRẠM TRÀ NHANG PHƯỚC TRÀ</t>
+  </si>
+  <si>
+    <t>Xã Phước Trà</t>
+  </si>
+  <si>
+    <t>Thôn Trà Nhang, xã Phước Trà, huyện Hiệp Đức</t>
+  </si>
+  <si>
+    <t>108.028190</t>
+  </si>
+  <si>
+    <t>15.499560</t>
   </si>
 </sst>
 </file>
@@ -14218,10 +15217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14231,7 +15230,7 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -15152,6 +16151,2856 @@
         <v>1869</v>
       </c>
     </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1929</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1882</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1846</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1855</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1882</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1937</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1944</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1949</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1969</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1987</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2007</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2011</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L57" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2017</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2019</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2025</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2031</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2072</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2073</v>
+      </c>
+      <c r="L67" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2083</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2102</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2107</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2113</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2119</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2131</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2141</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2146</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2147</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2152</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2156</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2163</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2172</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2173</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2184</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2196</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2204</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2209</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J93" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2227</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2228</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2239</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2244</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2245</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2257</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2258</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2259</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1">
     <sortState ref="A2:L24">
